--- a/study003/説明.xlsx
+++ b/study003/説明.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker\akanekoVr\study003\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Kubernets 説明" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ﾏﾆﾌｪｽﾄﾌｧｲﾙの説明" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Kubernets 説明" sheetId="1" r:id="rId1"/>
+    <sheet name="ﾏﾆﾌｪｽﾄﾌｧｲﾙの説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,75 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
-  <si>
-    <t xml:space="preserve">Kubernets 説明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンテナオーケストレーション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dockerのｼｽﾃﾑ運用で困っていたことを解決出来ます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docker の問題点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kubernetesによる対策</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ｼｽﾃﾑリソースの利用率に無駄がある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">複数のコンテナの共存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">突発的大量アクセスに応答しなくなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水平スケール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水平スケール・スケールアウトとは、本番環境に実際に接続されたサーバやコンピュータ機器の台数を増やすこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一部ｼｽﾃﾑがﾀﾞｳﾝする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">監視＆自動デプロイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デプロイ：特定の環境下でアプリケーションやシステムを使えるようにすること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リリースのたびにサービス停止が発生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローリングデプロイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">複数の稼働中サーバーに対して一定数づつ新しいアプリケーションをデプロイ、リリースしていく方法です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仕組み</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cstoku.dev/posts/2018/k8sdojo-01/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kubernetesのアーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K8sでは使えるリソースを一元管理出来るような仕組みを持っています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">各リソースサーバはワーカーノードと呼ばれる物で認識され、</t>
-  </si>
-  <si>
-    <t xml:space="preserve">それらを管理するのがマスターノードと呼ばれるの物になります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワーカーノードとマスターノードはネットワーク上で接続されています。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+  <si>
+    <t>Kubernets 説明</t>
+  </si>
+  <si>
+    <t>コンテナオーケストレーション</t>
+  </si>
+  <si>
+    <t>Dockerのｼｽﾃﾑ運用で困っていたことを解決出来ます。</t>
+  </si>
+  <si>
+    <t>Docker の問題点</t>
+  </si>
+  <si>
+    <t>Kubernetesによる対策</t>
+  </si>
+  <si>
+    <t>ｼｽﾃﾑリソースの利用率に無駄がある</t>
+  </si>
+  <si>
+    <t>複数のコンテナの共存</t>
+  </si>
+  <si>
+    <t>突発的大量アクセスに応答しなくなる</t>
+  </si>
+  <si>
+    <t>水平スケール</t>
+  </si>
+  <si>
+    <t>水平スケール・スケールアウトとは、本番環境に実際に接続されたサーバやコンピュータ機器の台数を増やすこと</t>
+  </si>
+  <si>
+    <t>一部ｼｽﾃﾑがﾀﾞｳﾝする</t>
+  </si>
+  <si>
+    <t>監視＆自動デプロイ</t>
+  </si>
+  <si>
+    <t>デプロイ：特定の環境下でアプリケーションやシステムを使えるようにすること</t>
+  </si>
+  <si>
+    <t>リリースのたびにサービス停止が発生</t>
+  </si>
+  <si>
+    <t>ローリングデプロイ</t>
+  </si>
+  <si>
+    <t>複数の稼働中サーバーに対して一定数づつ新しいアプリケーションをデプロイ、リリースしていく方法です。</t>
+  </si>
+  <si>
+    <t>仕組み</t>
+  </si>
+  <si>
+    <t>https://cstoku.dev/posts/2018/k8sdojo-01/</t>
+  </si>
+  <si>
+    <t>Kubernetesのアーキテクチャ</t>
+  </si>
+  <si>
+    <t>K8sでは使えるリソースを一元管理出来るような仕組みを持っています。</t>
+  </si>
+  <si>
+    <t>各リソースサーバはワーカーノードと呼ばれる物で認識され、</t>
+  </si>
+  <si>
+    <t>それらを管理するのがマスターノードと呼ばれるの物になります。</t>
+  </si>
+  <si>
+    <t>ワーカーノードとマスターノードはネットワーク上で接続されています。</t>
   </si>
   <si>
     <r>
@@ -99,17 +103,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ﾕｰｻﾞが</t>
+      <t>ﾕｰｻﾞが</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Kubectl</t>
+      <t>Kubectl</t>
     </r>
     <r>
       <rPr>
@@ -118,22 +122,22 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を通じマスターノードのに指示を送り</t>
+      <t>を通じマスターノードのに指示を送り</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">マスターノードが各ワーカに対し指示を飛ばします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指示を受けたワーカーノードはPODを初めとした各種リソースの操作を実行します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ﾏﾆﾌｪｽﾄﾌｧｲﾙの書き方</t>
+    <t>マスターノードが各ワーカに対し指示を飛ばします。</t>
+  </si>
+  <si>
+    <t>指示を受けたワーカーノードはPODを初めとした各種リソースの操作を実行します。</t>
+  </si>
+  <si>
+    <t>ﾏﾆﾌｪｽﾄﾌｧｲﾙの書き方</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -148,17 +152,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">、</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Kind</t>
+      <t>Kind</t>
     </r>
   </si>
   <si>
@@ -169,7 +173,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Kind:</t>
+      <t>Kind:</t>
     </r>
     <r>
       <rPr>
@@ -178,7 +182,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">設定対象の種別</t>
+      <t>設定対象の種別</t>
     </r>
   </si>
   <si>
@@ -189,7 +193,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">apiVersion</t>
+      <t>apiVersion</t>
     </r>
     <r>
       <rPr>
@@ -198,7 +202,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">は</t>
+      <t>は</t>
     </r>
     <r>
       <rPr>
@@ -216,79 +220,76 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">により決定されます。</t>
+      <t>により決定されます。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">k8sﾘﾌｧﾚﾝｽ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://v1-17.docs.kubernetes.io/docs/reference/generated/kubernetes-api/v1.16/#pod-v1-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apiVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メタ情報を定義します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name+namespaceで、K8S上でユニークな名前を定義してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これらは後から定義の結び付けで利用されます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なお、namespaceは省略した場合、defultとなります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadata移行は、kind次第で変わります。</t>
+    <t>k8sﾘﾌｧﾚﾝｽ</t>
+  </si>
+  <si>
+    <t>apiVersion</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>メタ情報を定義します。</t>
+  </si>
+  <si>
+    <t>name+namespaceで、K8S上でユニークな名前を定義してください。</t>
+  </si>
+  <si>
+    <t>これらは後から定義の結び付けで利用されます。</t>
+  </si>
+  <si>
+    <t>なお、namespaceは省略した場合、defultとなります。</t>
+  </si>
+  <si>
+    <t>metadata移行は、kind次第で変わります。</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">主な</t>
+      <t>主な</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Kind</t>
+      <t>Kind</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の種類</t>
+      <t>の種類</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">種別</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワークロード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pod</t>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>ワークロード</t>
+  </si>
+  <si>
+    <t>Pod</t>
   </si>
   <si>
     <r>
@@ -298,7 +299,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">最小単位。同一環境内の</t>
+      <t>最小単位。同一環境内の</t>
     </r>
     <r>
       <rPr>
@@ -307,7 +308,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Docker</t>
+      <t>Docker</t>
     </r>
     <r>
       <rPr>
@@ -316,11 +317,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">コンテナの集合体</t>
+      <t>コンテナの集合体</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ReplicaSet</t>
+    <t>ReplicaSet</t>
   </si>
   <si>
     <r>
@@ -330,7 +331,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">pod</t>
+      <t>pod</t>
     </r>
     <r>
       <rPr>
@@ -339,7 +340,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の集合。</t>
+      <t>の集合。</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +349,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">pod</t>
+      <t>pod</t>
     </r>
     <r>
       <rPr>
@@ -357,11 +358,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">のスケール制御</t>
+      <t>のスケール制御</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Deployment</t>
+    <t>Deployment</t>
   </si>
   <si>
     <r>
@@ -371,7 +372,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ReplicaSet</t>
+      <t>ReplicaSet</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +381,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の集合。</t>
+      <t>の集合。</t>
     </r>
     <r>
       <rPr>
@@ -389,7 +390,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ReplicaSet</t>
+      <t>ReplicaSet</t>
     </r>
     <r>
       <rPr>
@@ -398,14 +399,14 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の世代管理</t>
+      <t>の世代管理</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ロールバック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatefulSet</t>
+    <t>ロールバック</t>
+  </si>
+  <si>
+    <t>StatefulSet</t>
   </si>
   <si>
     <r>
@@ -415,7 +416,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">pod</t>
+      <t>pod</t>
     </r>
     <r>
       <rPr>
@@ -424,7 +425,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の集合。</t>
+      <t>の集合。</t>
     </r>
     <r>
       <rPr>
@@ -433,7 +434,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">pod</t>
+      <t>pod</t>
     </r>
     <r>
       <rPr>
@@ -442,87 +443,92 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">のスケール制御＋名前定義</t>
+      <t>のスケール制御＋名前定義</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部公開。名前解決。L4ﾛｰﾄﾞバランサー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部公開　L7ﾛｰﾄﾞバランサー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PersistentVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永続データ（実態）ストレージへの接続情報。ストレージの抽象化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PersistentVolumeClaim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永続データ（要求情報）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定情報を保存する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機微情報を保存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base64エンコード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod6</t>
+    <t>サービス</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>外部公開。名前解決。L4ﾛｰﾄﾞバランサー</t>
+  </si>
+  <si>
+    <t>Ingress</t>
+  </si>
+  <si>
+    <t>外部公開　L7ﾛｰﾄﾞバランサー</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>PersistentVolume</t>
+  </si>
+  <si>
+    <t>永続データ（実態）ストレージへの接続情報。ストレージの抽象化</t>
+  </si>
+  <si>
+    <t>PersistentVolumeClaim</t>
+  </si>
+  <si>
+    <t>永続データ（要求情報）</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>ConfigMap</t>
+  </si>
+  <si>
+    <t>設定情報を保存する</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>機微情報を保存</t>
+  </si>
+  <si>
+    <t>Base64エンコード</t>
+  </si>
+  <si>
+    <t>pod</t>
+  </si>
+  <si>
+    <t>pod1</t>
+  </si>
+  <si>
+    <t>pod2</t>
+  </si>
+  <si>
+    <t>pod3</t>
+  </si>
+  <si>
+    <t>pod4</t>
+  </si>
+  <si>
+    <t>pod5</t>
+  </si>
+  <si>
+    <t>pod6</t>
+  </si>
+  <si>
+    <t>https://v1-17.docs.kubernetes.io/docs/reference/generated/kubernetes-api/v1.16/#pod-v1-core</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingress </t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -530,59 +536,21 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -595,17 +563,23 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -672,320 +646,195 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1044,13 +893,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1064,9 +929,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1078,6 +943,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="5414" h="1392">
@@ -1120,35 +986,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="f7d1d5"/>
+          <a:srgbClr val="F7D1D5"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>マスターノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1167,9 +1037,9 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1181,6 +1051,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -1223,35 +1094,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1270,9 +1145,9 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1284,6 +1159,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -1326,35 +1202,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1373,9 +1253,9 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1387,6 +1267,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -1429,35 +1310,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1476,9 +1361,9 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1490,6 +1375,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4830" h="1392">
@@ -1532,35 +1418,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="d4ea6b"/>
+          <a:srgbClr val="D4EA6B"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>kubectl</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1579,9 +1469,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 1"/>
+        <xdr:cNvPr id="7" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1594,14 +1484,20 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1620,9 +1516,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 1"/>
+        <xdr:cNvPr id="8" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1635,14 +1531,20 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1661,9 +1563,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 1"/>
+        <xdr:cNvPr id="9" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1676,14 +1578,20 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1702,9 +1610,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 1"/>
+        <xdr:cNvPr id="10" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1717,14 +1625,20 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1743,9 +1657,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 1"/>
+        <xdr:cNvPr id="11" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1758,14 +1672,20 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1784,9 +1704,9 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1798,6 +1718,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1299" h="959">
@@ -1829,18 +1750,24 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="729FCF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1859,9 +1786,9 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1873,6 +1800,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="5414" h="1392">
@@ -1915,35 +1843,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="f7d1d5"/>
+          <a:srgbClr val="F7D1D5"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>マスターノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1962,9 +1894,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1976,6 +1908,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -2018,35 +1951,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2065,9 +2002,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2079,6 +2016,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -2121,35 +2059,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2168,9 +2110,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2182,6 +2124,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -2224,35 +2167,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2271,9 +2218,9 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2285,6 +2232,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="660" h="931">
@@ -2316,18 +2264,24 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="729FCF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2346,9 +2300,9 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2360,6 +2314,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="660" h="931">
@@ -2391,18 +2346,24 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="729FCF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2421,9 +2382,9 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2435,6 +2396,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="660" h="931">
@@ -2466,18 +2428,24 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="729FCF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2496,9 +2464,9 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2510,6 +2478,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4309" h="1392">
@@ -2552,35 +2521,39 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffff38"/>
+          <a:srgbClr val="FFFF38"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ワーカーノード</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2599,9 +2572,9 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2613,35 +2586,39 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1500" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>POD</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1500" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2660,9 +2637,9 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2674,35 +2651,39 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1500" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>POD</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1500" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2721,9 +2702,9 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2735,6 +2716,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
             <a:path w="4501" h="931">
@@ -2766,18 +2748,24 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="729FCF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2787,27 +2775,27 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30240</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>79005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640440</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>2925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="画像 2" descr=""/>
+        <xdr:cNvPr id="22" name="画像 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2830,21 +2818,21 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>115560</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>90165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>725760</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>14085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="画像 2" descr=""/>
+        <xdr:cNvPr id="23" name="画像 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2867,21 +2855,21 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>708120</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>98445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>505800</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>12045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="画像 2" descr=""/>
+        <xdr:cNvPr id="24" name="画像 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2904,21 +2892,21 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>288360</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>57405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>135720</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>136245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="画像 3" descr=""/>
+        <xdr:cNvPr id="25" name="画像 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2940,16 +2928,16 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>550440</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>500400</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>85845</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -2965,15 +2953,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2984,15 +2978,15 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>778680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>89085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1166040</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>4725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3008,15 +3002,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3027,21 +3027,21 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>34005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3339360</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>95205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="画像 4" descr=""/>
+        <xdr:cNvPr id="28" name="画像 4"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3064,15 +3064,15 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>10440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>19245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1221480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>124365</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3088,15 +3088,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3106,16 +3112,16 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>309600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>620640</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3133,120 +3139,85 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>apiVersion</a:t>
+            <a:t>apiVersionの情報</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>の情報</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Group / Version </a:t>
+            <a:t>Group / Version 形式で値を書きます。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>形式で値を書きます。</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>ただし、</a:t>
+            <a:t>ただし、Groupがcoreの場合、省略可能</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Group</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>core</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>の場合、省略可能</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3259,15 +3230,15 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>221040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>57405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>565920</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>67125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3283,15 +3254,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3302,15 +3279,15 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>153000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>124005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>297360</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>133005</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3328,48 +3305,41 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>ここから対象</a:t>
+            <a:t>ここから対象kindを探します。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>kind</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>を探します。</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3381,16 +3351,16 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3062160</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>57765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3406,15 +3376,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3425,15 +3401,15 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1795680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>57765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>718560</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>66765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3451,62 +3427,41 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>対象</a:t>
+            <a:t>対象Kindで利用可能なFieldです。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Kind</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>で利用可能な</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Field</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>です。</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3524,16 +3479,16 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>806040</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="画像 1" descr=""/>
+        <xdr:cNvPr id="35" name="画像 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3564,7 +3519,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3580,15 +3535,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3599,21 +3560,21 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>4320</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>19605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1511280</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>38325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="画像 5" descr=""/>
+        <xdr:cNvPr id="37" name="画像 5"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3636,15 +3597,15 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>488880</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>86205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>674640</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>86205</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3660,15 +3621,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3679,15 +3646,15 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>418680</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>98085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>604440</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>117165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3703,15 +3670,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3722,15 +3695,15 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>181080</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>106005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>544680</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>125085</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3746,15 +3719,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3765,15 +3744,15 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>741240</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>86205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>397440</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>57405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Line 1"/>
         <xdr:cNvSpPr/>
@@ -3788,16 +3767,22 @@
         </a:prstGeom>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3807,16 +3792,16 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>674640</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>544680</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>57405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="Line 1"/>
         <xdr:cNvSpPr/>
@@ -3831,16 +3816,22 @@
         </a:prstGeom>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3851,15 +3842,15 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304920</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>18165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1469160</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -3877,67 +3868,60 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>このように、</a:t>
+            <a:t>このように、metadataは</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>metadata</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>は</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>別定義との結び付けに利用されます。</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3949,22 +3933,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>326880</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>796320</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>114645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="画像 1" descr=""/>
+        <xdr:cNvPr id="44" name="画像 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3987,15 +3971,15 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>469080</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>53085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>124725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -4011,15 +3995,21 @@
         <a:noFill/>
         <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4030,15 +4020,15 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>264240</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>115005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>398160</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>38685</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -4056,66 +4046,66 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="f6f9d4"/>
+          <a:srgbClr val="F6F9D4"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>pod</a:t>
+            <a:t>pod同士で通信できるように</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>同士で通信できるように</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>名前を定義付け</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4126,42 +4116,300 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="95.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="95.85546875" customWidth="1"/>
+    <col min="5" max="1025" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -4169,53 +4417,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -4223,46 +4471,46 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -4271,430 +4519,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:J190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H178" activeCellId="0" sqref="H178"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="57.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="12.83"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="57.7109375" customWidth="1"/>
+    <col min="11" max="1025" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="6" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="4" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I71" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="2" t="s">
+      <c r="J71" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="0" t="s">
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="J73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J73" s="0" t="s">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="J74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="0" t="s">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="J76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J76" s="0" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I132" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="0" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+    </row>
+    <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="2" t="s">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B156" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="8" t="s">
+      <c r="C156" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="D156" s="50"/>
+    </row>
+    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="9"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="10" t="s">
+      <c r="C157" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="D157" s="47"/>
+      <c r="E157" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="12" t="s">
+      <c r="F157" s="51"/>
+      <c r="G157" s="51"/>
+      <c r="H157" s="51"/>
+    </row>
+    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+      <c r="C158" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="13"/>
-      <c r="C158" s="11" t="s">
+      <c r="D158" s="47"/>
+      <c r="E158" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="14" t="s">
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+    </row>
+    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="9"/>
+      <c r="C159" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="13"/>
-      <c r="C159" s="11" t="s">
+      <c r="D159" s="47"/>
+      <c r="E159" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="15" t="s">
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" t="s">
         <v>48</v>
       </c>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="0" t="s">
+    </row>
+    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="10"/>
+      <c r="C160" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="16"/>
-      <c r="C160" s="11" t="s">
+      <c r="D160" s="47"/>
+      <c r="E160" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D160" s="11"/>
-      <c r="E160" s="14" t="s">
+      <c r="F160" s="49"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
+    </row>
+    <row r="161" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="17" t="s">
+      <c r="C161" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="D161" s="43"/>
+      <c r="E161" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="19" t="s">
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="44"/>
+    </row>
+    <row r="162" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="11"/>
+      <c r="C162" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="17"/>
-      <c r="C162" s="18" t="s">
+      <c r="D162" s="43"/>
+      <c r="E162" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="19" t="s">
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+    </row>
+    <row r="163" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="20" t="s">
+      <c r="C163" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="D163" s="45"/>
+      <c r="E163" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D163" s="21"/>
-      <c r="E163" s="22" t="s">
+      <c r="F163" s="46"/>
+      <c r="G163" s="46"/>
+      <c r="H163" s="46"/>
+    </row>
+    <row r="164" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="13"/>
+      <c r="C164" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="22"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="23"/>
-      <c r="C164" s="21" t="s">
+      <c r="D164" s="45"/>
+      <c r="E164" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D164" s="21"/>
-      <c r="E164" s="22" t="s">
+      <c r="F164" s="46"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="46"/>
+    </row>
+    <row r="165" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="22"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="24" t="s">
+      <c r="C165" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="D165" s="41"/>
+      <c r="E165" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="26" t="s">
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+    </row>
+    <row r="166" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="15"/>
+      <c r="C166" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="27"/>
-      <c r="C166" s="25" t="s">
+      <c r="D166" s="41"/>
+      <c r="E166" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="25"/>
-      <c r="E166" s="26" t="s">
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="2" t="s">
+    </row>
+    <row r="170" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B170" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="28" t="s">
+      <c r="C170" s="17"/>
+      <c r="D170" s="18"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B171" s="19"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B172" s="19"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="21"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B173" s="19"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="21"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="24"/>
+    </row>
+    <row r="176" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B176" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="27"/>
+    </row>
+    <row r="177" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B177" s="28"/>
+      <c r="C177" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="30"/>
+    </row>
+    <row r="178" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B178" s="28"/>
+      <c r="C178" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178" s="30"/>
+    </row>
+    <row r="179" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B179" s="28"/>
+      <c r="C179" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E179" s="30"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B180" s="13"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="32"/>
+    </row>
+    <row r="182" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B182" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="34"/>
+      <c r="G182" s="35"/>
+    </row>
+    <row r="183" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B183" s="14"/>
+      <c r="C183" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F183" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G183" s="37"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B184" s="15"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38"/>
+      <c r="E184" s="38"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="39"/>
+    </row>
+    <row r="186" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B186" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="27"/>
+    </row>
+    <row r="187" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B187" s="28"/>
+      <c r="C187" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C170" s="29"/>
-      <c r="D170" s="30"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="31"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="33"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="31"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="33"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="31"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="33"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="34"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="36"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="39"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="40"/>
-      <c r="C177" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D177" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E177" s="42"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="40"/>
-      <c r="C178" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D178" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E178" s="42"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="40"/>
-      <c r="C179" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D179" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E179" s="42"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="23"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="43"/>
-      <c r="E180" s="44"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C182" s="46"/>
-      <c r="D182" s="46"/>
-      <c r="E182" s="46"/>
-      <c r="F182" s="46"/>
-      <c r="G182" s="47"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="24"/>
-      <c r="C183" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E183" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F183" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G183" s="49"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="27"/>
-      <c r="C184" s="50"/>
-      <c r="D184" s="50"/>
-      <c r="E184" s="50"/>
-      <c r="F184" s="50"/>
-      <c r="G184" s="51"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C186" s="38"/>
-      <c r="D186" s="38"/>
-      <c r="E186" s="39"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="40"/>
-      <c r="C187" s="41" t="s">
+      <c r="D187" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D187" s="41" t="s">
+      <c r="E187" s="30"/>
+    </row>
+    <row r="188" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B188" s="28"/>
+      <c r="C188" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E187" s="42"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="40"/>
-      <c r="C188" s="41" t="s">
+      <c r="D188" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D188" s="41" t="s">
+      <c r="E188" s="30"/>
+    </row>
+    <row r="189" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B189" s="28"/>
+      <c r="C189" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E188" s="42"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="40"/>
-      <c r="C189" s="41" t="s">
+      <c r="D189" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D189" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E189" s="42"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="23"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="43"/>
-      <c r="E190" s="44"/>
+      <c r="E189" s="30"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B190" s="13"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4709,24 +4958,24 @@
     <mergeCell ref="E160:H160"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:H165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:H166"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="E162:H162"/>
     <mergeCell ref="C163:D163"/>
     <mergeCell ref="E163:H163"/>
     <mergeCell ref="C164:D164"/>
     <mergeCell ref="E164:H164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:H165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:H166"/>
   </mergeCells>
+  <phoneticPr fontId="7"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" location="pod-v1-core" display="https://v1-17.docs.kubernetes.io/docs/reference/generated/kubernetes-api/v1.16/#pod-v1-core"/>
+    <hyperlink ref="H10" r:id="rId1" location="pod-v1-core"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
